--- a/biology/Botanique/Salix_retusa/Salix_retusa.xlsx
+++ b/biology/Botanique/Salix_retusa/Salix_retusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix retusa, le Saule émoussé ou le Saule à feuilles tronquées, est une espèce de saules nains de la famille des Salicaceae. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix retusa est un saule rampant, assez commun sur les pelouses et les rocailles humides des zones boréo‐arctique et alpine, en terrain calcaire notamment dans les combes à neige. En France, l'espèce est présente à une altitude comprise entre 1 200 à 3 000 m dans les Alpes, les Pyrénées et le massif du Jura[1]. 
-Sa hauteur varie de 5 à 10 cm. Les feuilles, qui mesurent de 1 à 2 cm de long, sont entières ou légèrement denticulées et obtuses ou échancrées au sommet. Les chatons comportent peu de fleurs et leur floraison estivale a lieu en même temps que la feuillaison, c'est-à-dire de juin à juillet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix retusa est un saule rampant, assez commun sur les pelouses et les rocailles humides des zones boréo‐arctique et alpine, en terrain calcaire notamment dans les combes à neige. En France, l'espèce est présente à une altitude comprise entre 1 200 à 3 000 m dans les Alpes, les Pyrénées et le massif du Jura. 
+Sa hauteur varie de 5 à 10 cm. Les feuilles, qui mesurent de 1 à 2 cm de long, sont entières ou légèrement denticulées et obtuses ou échancrées au sommet. Les chatons comportent peu de fleurs et leur floraison estivale a lieu en même temps que la feuillaison, c'est-à-dire de juin à juillet.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Association</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix retusa est en association mycorhizienne avec l'Helvelle Helvella capucina[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix retusa est en association mycorhizienne avec l'Helvelle Helvella capucina.
 </t>
         </is>
       </c>
